--- a/BeSim V2.xlsx
+++ b/BeSim V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a627844e4eb4ccc3/Documentos/GitHub/MLLM-Human-Interaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{09C190D2-995E-40D2-81DB-0FEC93163BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2697A73C-8784-49B4-881D-537140444F7E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{09C190D2-995E-40D2-81DB-0FEC93163BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B69FEA2-12C7-4D53-AE1C-CB14BCF8D8EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,43 +1191,43 @@
     <t>Multilingual</t>
   </si>
   <si>
-    <t>files/4vwbh988nwbc</t>
-  </si>
-  <si>
-    <t>files/xc6dtpb3vcyx</t>
-  </si>
-  <si>
-    <t>files/5oo4ykz9c8x8</t>
-  </si>
-  <si>
-    <t>files/6uz81xdxfmuj</t>
-  </si>
-  <si>
-    <t>files/bdrsykutaalm</t>
-  </si>
-  <si>
-    <t>files/1xwyswvwuby1</t>
-  </si>
-  <si>
-    <t>files/lcw7lxyp3ty9</t>
-  </si>
-  <si>
-    <t>files/omte1df8kbmk</t>
-  </si>
-  <si>
-    <t>files/j2mqa5undq1u</t>
-  </si>
-  <si>
-    <t>files/56ga2gpy3ag0</t>
-  </si>
-  <si>
-    <t>files/fapbjptpxm2e</t>
-  </si>
-  <si>
-    <t>files/y2mtyna17315</t>
-  </si>
-  <si>
-    <t>files/cvtmlk605mvb</t>
+    <t>files/v96w5ebdlesw</t>
+  </si>
+  <si>
+    <t>files/l83te308jgm8</t>
+  </si>
+  <si>
+    <t>files/5zqx6rredex6</t>
+  </si>
+  <si>
+    <t>files/5kfypiept939</t>
+  </si>
+  <si>
+    <t>files/an7cieqc067s</t>
+  </si>
+  <si>
+    <t>files/53ize0wwyoou</t>
+  </si>
+  <si>
+    <t>files/msqufm7vb0ud</t>
+  </si>
+  <si>
+    <t>files/vreeibigyvaz</t>
+  </si>
+  <si>
+    <t>files/lfnihv84r3g9</t>
+  </si>
+  <si>
+    <t>files/uqquaglau3un</t>
+  </si>
+  <si>
+    <t>files/isbhxk4zxkx4</t>
+  </si>
+  <si>
+    <t>files/tsoiey60hc44</t>
+  </si>
+  <si>
+    <t>files/3nij92m9kxwc</t>
   </si>
 </sst>
 </file>
@@ -1684,6 +1684,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="videos" displayName="videos" ref="A1:I14">
   <tableColumns count="9">
@@ -1931,7 +1935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2411,8 +2415,9 @@
     <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
